--- a/data/Verif_Code_1D.xlsx
+++ b/data/Verif_Code_1D.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -107,13 +107,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
-    <numFmt numFmtId="172" formatCode="0.000000000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000000"/>
-    <numFmt numFmtId="175" formatCode="0.000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -144,18 +144,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2615,7 +2613,7 @@
       <c r="K9" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
@@ -2660,13 +2658,13 @@
         <f>$C$7*$C$4*$C$3/(2*$C$5)</f>
         <v>2249999.9999999995</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10">
         <v>4.7864000000000001E-4</v>
       </c>
       <c r="M10" s="2">
         <v>2425600</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f>J10-L10</f>
         <v>1.3600000000000005E-6</v>
       </c>
@@ -2705,14 +2703,14 @@
         <f t="shared" ref="K11:K16" si="4">$C$7*$C$4*$C$3/(2*$C$5)</f>
         <v>2249999.9999999995</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11">
         <v>4.7865000000000001E-4</v>
       </c>
       <c r="M11" s="2">
         <v>2489600</v>
       </c>
-      <c r="N11" s="7">
-        <f t="shared" ref="N11:N16" si="5">J11-L11</f>
+      <c r="N11" s="6">
+        <f t="shared" ref="N11:N13" si="5">J11-L11</f>
         <v>1.3500000000000057E-6</v>
       </c>
       <c r="O11" s="2"/>
@@ -2747,13 +2745,13 @@
         <f t="shared" si="4"/>
         <v>2249999.9999999995</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12">
         <v>4.7867E-4</v>
       </c>
       <c r="M12" s="2">
         <v>2620600</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <f t="shared" si="5"/>
         <v>1.3300000000000161E-6</v>
       </c>
@@ -2789,13 +2787,13 @@
         <f t="shared" si="4"/>
         <v>2249999.9999999995</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13">
         <v>4.7867999999999999E-4</v>
       </c>
       <c r="M13" s="2">
         <v>2749600</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <f t="shared" si="5"/>
         <v>1.3200000000000212E-6</v>
       </c>
@@ -2818,7 +2816,6 @@
         <f t="shared" si="4"/>
         <v>2249999.9999999995</v>
       </c>
-      <c r="L14" s="5"/>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
@@ -2838,7 +2835,6 @@
         <f t="shared" si="4"/>
         <v>2249999.9999999995</v>
       </c>
-      <c r="L15" s="5"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
@@ -2858,7 +2854,6 @@
         <f t="shared" si="4"/>
         <v>2249999.9999999995</v>
       </c>
-      <c r="L16" s="5"/>
       <c r="N16" s="4"/>
     </row>
   </sheetData>
@@ -2870,8 +2865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED31C2CA-1EF4-4FF6-8A07-027497D8B3A7}">
   <dimension ref="A2:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="111" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="111" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3025,7 +3020,7 @@
       <c r="K9" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
@@ -3043,7 +3038,7 @@
         <f>1.6/A10</f>
         <v>7.6190476190476197E-2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <f>$C$7*$C$4^3/(3*$C$6*$C$5)</f>
         <v>4.8</v>
       </c>
@@ -3054,7 +3049,7 @@
       <c r="E10">
         <v>4.8024935720000004</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f>ABS(C10-E10)</f>
         <v>2.4935720000005546E-3</v>
       </c>
@@ -3078,7 +3073,7 @@
         <v>4.8023E-4</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f>J10-L10</f>
         <v>-2.2999999999998933E-7</v>
       </c>
@@ -3100,10 +3095,10 @@
         <f t="shared" ref="D11:D14" si="1">$C$7*$C$4*$C$3/(2*$C$5)</f>
         <v>2249999.9999999995</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11">
         <v>4.8024935720000004</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f>ABS(C11-E11)</f>
         <v>2.4935720000005546E-3</v>
       </c>
@@ -3127,7 +3122,7 @@
         <v>4.8023E-4</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <f t="shared" ref="N11:N13" si="3">J11-L11</f>
         <v>-2.2999999999998933E-7</v>
       </c>
@@ -3152,7 +3147,7 @@
       <c r="E12">
         <v>4.8024940489999999</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f>ABS(C12-E12)</f>
         <v>2.4940490000000537E-3</v>
       </c>
@@ -3176,7 +3171,7 @@
         <v>4.8023E-4</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <f t="shared" si="3"/>
         <v>-2.2999999999998933E-7</v>
       </c>
@@ -3201,7 +3196,7 @@
       <c r="E13">
         <v>4.8024945260000003</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f>ABS(C13-E13)</f>
         <v>2.494526000000441E-3</v>
       </c>
@@ -3225,7 +3220,7 @@
         <v>4.8023E-4</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <f t="shared" si="3"/>
         <v>-2.2999999999998933E-7</v>
       </c>
@@ -3250,7 +3245,7 @@
       <c r="E14">
         <v>4.802496433</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f>ABS(C14-E14)</f>
         <v>2.4964330000001311E-3</v>
       </c>
@@ -3277,7 +3272,6 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="J15" s="4"/>
-      <c r="L15" s="5"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -3300,7 +3294,6 @@
         <v>13</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="L16" s="5"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -3311,7 +3304,7 @@
         <f>1.6/A17</f>
         <v>7.6190476190476197E-2</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>4.7996249999999998</v>
       </c>
       <c r="D17">
@@ -3321,7 +3314,7 @@
       <c r="E17">
         <v>4.8024935720000004</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f>ABS(C17-E17)</f>
         <v>2.8685720000005688E-3</v>
       </c>
@@ -3334,17 +3327,17 @@
         <f>1.6/A18</f>
         <v>3.8095238095238099E-2</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>4.7996249999999998</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D21" si="6">$C$7*$C$4*$C$3/(2*$C$5)</f>
         <v>2249999.9999999995</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>4.8024935720000004</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f>ABS(C18-E18)</f>
         <v>2.8685720000005688E-3</v>
       </c>
@@ -3357,7 +3350,7 @@
         <f t="shared" ref="B19:B26" si="7">1.6/A19</f>
         <v>0.16</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>4.7996249999999998</v>
       </c>
       <c r="D19">
@@ -3367,7 +3360,7 @@
       <c r="E19">
         <v>4.8024940489999999</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f>ABS(C19-E19)</f>
         <v>2.8690490000000679E-3</v>
       </c>
@@ -3380,7 +3373,7 @@
         <f t="shared" si="7"/>
         <v>0.32</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>4.7996249999999998</v>
       </c>
       <c r="D20">
@@ -3390,7 +3383,7 @@
       <c r="E20">
         <v>4.8024945260000003</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f>ABS(C20-E20)</f>
         <v>2.8695260000004552E-3</v>
       </c>
@@ -3403,7 +3396,7 @@
         <f t="shared" si="7"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>4.7996249999999998</v>
       </c>
       <c r="D21">
@@ -3413,7 +3406,7 @@
       <c r="E21">
         <v>4.802496433</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f>ABS(C21-E21)</f>
         <v>2.8714330000001453E-3</v>
       </c>
@@ -3426,13 +3419,13 @@
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>4.7996249999999998</v>
       </c>
       <c r="E22">
         <v>4.8024954800000001</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f t="shared" ref="F22:F26" si="8">ABS(C22-E22)</f>
         <v>2.8704800000003416E-3</v>
       </c>
@@ -3445,13 +3438,13 @@
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>4.7996249999999998</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23">
         <v>4.8024940489999999</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f t="shared" si="8"/>
         <v>2.8690490000000679E-3</v>
       </c>
@@ -3464,13 +3457,13 @@
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>4.7996249999999998</v>
       </c>
       <c r="E24">
         <v>4.8024997709999999</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <f t="shared" si="8"/>
         <v>2.8747710000001092E-3</v>
       </c>
@@ -3483,13 +3476,13 @@
         <f t="shared" si="7"/>
         <v>1.6E-2</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>4.7996249999999998</v>
       </c>
       <c r="E25">
         <v>4.8024935720000004</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <f t="shared" si="8"/>
         <v>2.8685720000005688E-3</v>
       </c>
@@ -3502,13 +3495,13 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>4.7996249999999998</v>
       </c>
       <c r="E26">
         <v>4.8024935720000004</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <f t="shared" si="8"/>
         <v>2.8685720000005688E-3</v>
       </c>
@@ -3554,7 +3547,7 @@
       <c r="F30">
         <v>4.8024997709999999</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="8">
         <f>F30-4.799625</f>
         <v>2.8747710000001092E-3</v>
       </c>
@@ -3577,7 +3570,7 @@
       <c r="F31">
         <v>4.8024954800000001</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="8">
         <f t="shared" ref="G31:G37" si="11">F31-4.799625</f>
         <v>2.8704800000003416E-3</v>
       </c>
@@ -3600,7 +3593,7 @@
       <c r="F32">
         <v>4.8024945260000003</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="8">
         <f t="shared" si="11"/>
         <v>2.8695260000004552E-3</v>
       </c>
@@ -3623,7 +3616,7 @@
       <c r="F33">
         <v>4.8024940489999999</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="8">
         <f t="shared" si="11"/>
         <v>2.8690490000000679E-3</v>
       </c>
@@ -3646,7 +3639,7 @@
       <c r="F34">
         <v>4.8024940489999999</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="8">
         <f t="shared" si="11"/>
         <v>2.8690490000000679E-3</v>
       </c>
@@ -3669,7 +3662,7 @@
       <c r="F35">
         <v>4.8024935720000004</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="8">
         <f t="shared" si="11"/>
         <v>2.8685720000005688E-3</v>
       </c>
@@ -3692,7 +3685,7 @@
       <c r="F36">
         <v>4.8024935720000004</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="8">
         <f t="shared" si="11"/>
         <v>2.8685720000005688E-3</v>
       </c>
@@ -3715,7 +3708,7 @@
       <c r="F37">
         <v>4.8024935720000004</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="8">
         <f t="shared" si="11"/>
         <v>2.8685720000005688E-3</v>
       </c>
